--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.37088971429245</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H2">
-        <v>6.37088971429245</v>
+        <v>20.055842</v>
       </c>
       <c r="I2">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J2">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29252836627688</v>
+        <v>1.740822</v>
       </c>
       <c r="N2">
-        <v>1.29252836627688</v>
+        <v>5.222466</v>
       </c>
       <c r="O2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q2">
-        <v>8.2345556741446</v>
+        <v>11.637883660708</v>
       </c>
       <c r="R2">
-        <v>8.2345556741446</v>
+        <v>104.740952946372</v>
       </c>
       <c r="S2">
-        <v>0.02139319559472959</v>
+        <v>0.02346236484653157</v>
       </c>
       <c r="T2">
-        <v>0.02139319559472959</v>
+        <v>0.02346236484653158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.37088971429245</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H3">
-        <v>6.37088971429245</v>
+        <v>20.055842</v>
       </c>
       <c r="I3">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J3">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02732863164104</v>
+        <v>1.077748</v>
       </c>
       <c r="N3">
-        <v>1.02732863164104</v>
+        <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q3">
-        <v>6.544997412520039</v>
+        <v>7.205047867938666</v>
       </c>
       <c r="R3">
-        <v>6.544997412520039</v>
+        <v>64.845430811448</v>
       </c>
       <c r="S3">
-        <v>0.01700376017283838</v>
+        <v>0.01452561881032047</v>
       </c>
       <c r="T3">
-        <v>0.01700376017283838</v>
+        <v>0.01452561881032048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.37088971429245</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H4">
-        <v>6.37088971429245</v>
+        <v>20.055842</v>
       </c>
       <c r="I4">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J4">
-        <v>0.04617048702858932</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.469659131405571</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N4">
-        <v>0.469659131405571</v>
+        <v>0.104645</v>
       </c>
       <c r="O4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q4">
-        <v>2.992146529495278</v>
+        <v>0.2331937317877777</v>
       </c>
       <c r="R4">
-        <v>2.992146529495278</v>
+        <v>2.09874358609</v>
       </c>
       <c r="S4">
-        <v>0.007773531261021354</v>
+        <v>0.000470126405679864</v>
       </c>
       <c r="T4">
-        <v>0.007773531261021354</v>
+        <v>0.0004701264056798641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>127.718932109949</v>
+        <v>6.685280666666666</v>
       </c>
       <c r="H5">
-        <v>127.718932109949</v>
+        <v>20.055842</v>
       </c>
       <c r="I5">
-        <v>0.9255921170725497</v>
+        <v>0.04823797026856602</v>
       </c>
       <c r="J5">
-        <v>0.9255921170725497</v>
+        <v>0.04823797026856604</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29252836627688</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N5">
-        <v>1.29252836627688</v>
+        <v>2.17689</v>
       </c>
       <c r="O5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q5">
-        <v>165.0803426627001</v>
+        <v>4.851040210153334</v>
       </c>
       <c r="R5">
-        <v>165.0803426627001</v>
+        <v>43.65936189138</v>
       </c>
       <c r="S5">
-        <v>0.4288751207933253</v>
+        <v>0.009779860206034108</v>
       </c>
       <c r="T5">
-        <v>0.4288751207933253</v>
+        <v>0.009779860206034111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>127.718932109949</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H6">
-        <v>127.718932109949</v>
+        <v>383.299987</v>
       </c>
       <c r="I6">
-        <v>0.9255921170725497</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J6">
-        <v>0.9255921170725497</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02732863164104</v>
+        <v>1.740822</v>
       </c>
       <c r="N6">
-        <v>1.02732863164104</v>
+        <v>5.222466</v>
       </c>
       <c r="O6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q6">
-        <v>131.2093157591688</v>
+        <v>222.419016656438</v>
       </c>
       <c r="R6">
-        <v>131.2093157591688</v>
+        <v>2001.771149907942</v>
       </c>
       <c r="S6">
-        <v>0.3408789334802962</v>
+        <v>0.4484042176172314</v>
       </c>
       <c r="T6">
-        <v>0.3408789334802962</v>
+        <v>0.4484042176172315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>127.718932109949</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H7">
-        <v>127.718932109949</v>
+        <v>383.299987</v>
       </c>
       <c r="I7">
-        <v>0.9255921170725497</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J7">
-        <v>0.9255921170725497</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469659131405571</v>
+        <v>1.077748</v>
       </c>
       <c r="N7">
-        <v>0.469659131405571</v>
+        <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q7">
-        <v>59.98436271880573</v>
+        <v>137.7002647964253</v>
       </c>
       <c r="R7">
-        <v>59.98436271880573</v>
+        <v>1239.302383167828</v>
       </c>
       <c r="S7">
-        <v>0.1558380627989282</v>
+        <v>0.2776083647429409</v>
       </c>
       <c r="T7">
-        <v>0.1558380627989282</v>
+        <v>0.277608364742941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.89637074824577</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H8">
-        <v>3.89637074824577</v>
+        <v>383.299987</v>
       </c>
       <c r="I8">
-        <v>0.02823739589886082</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J8">
-        <v>0.02823739589886082</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29252836627688</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N8">
-        <v>1.29252836627688</v>
+        <v>0.104645</v>
       </c>
       <c r="O8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q8">
-        <v>5.03616971763913</v>
+        <v>4.456714126623888</v>
       </c>
       <c r="R8">
-        <v>5.03616971763913</v>
+        <v>40.110427139615</v>
       </c>
       <c r="S8">
-        <v>0.0130838588117142</v>
+        <v>0.008984885560299518</v>
       </c>
       <c r="T8">
-        <v>0.0130838588117142</v>
+        <v>0.00898488556029952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.89637074824577</v>
+        <v>127.7666623333333</v>
       </c>
       <c r="H9">
-        <v>3.89637074824577</v>
+        <v>383.299987</v>
       </c>
       <c r="I9">
-        <v>0.02823739589886082</v>
+        <v>0.921906613387149</v>
       </c>
       <c r="J9">
-        <v>0.02823739589886082</v>
+        <v>0.9219066133871491</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.02732863164104</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N9">
-        <v>1.02732863164104</v>
+        <v>2.17689</v>
       </c>
       <c r="O9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q9">
-        <v>4.002853229161501</v>
+        <v>92.71132318893667</v>
       </c>
       <c r="R9">
-        <v>4.002853229161501</v>
+        <v>834.40190870043</v>
       </c>
       <c r="S9">
-        <v>0.01039932516788072</v>
+        <v>0.1869091454666771</v>
       </c>
       <c r="T9">
-        <v>0.01039932516788072</v>
+        <v>0.1869091454666771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.003140333333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.009421000000000001</v>
+      </c>
+      <c r="I10">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="J10">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.740822</v>
+      </c>
+      <c r="N10">
+        <v>5.222466</v>
+      </c>
+      <c r="O10">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P10">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q10">
+        <v>0.005466761354</v>
+      </c>
+      <c r="R10">
+        <v>0.049200852186</v>
+      </c>
+      <c r="S10">
+        <v>1.102117473897002E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.102117473897002E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.003140333333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.009421000000000001</v>
+      </c>
+      <c r="I11">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="J11">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.077748</v>
+      </c>
+      <c r="N11">
+        <v>3.233244</v>
+      </c>
+      <c r="O11">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P11">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q11">
+        <v>0.003384487969333333</v>
+      </c>
+      <c r="R11">
+        <v>0.030460391724</v>
+      </c>
+      <c r="S11">
+        <v>6.82324156781995E-06</v>
+      </c>
+      <c r="T11">
+        <v>6.823241567819953E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.003140333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.009421000000000001</v>
+      </c>
+      <c r="I12">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="J12">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.104645</v>
+      </c>
+      <c r="O12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P12">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q12">
+        <v>0.0001095400605555556</v>
+      </c>
+      <c r="R12">
+        <v>0.0009858605450000001</v>
+      </c>
+      <c r="S12">
+        <v>2.208364459547497E-07</v>
+      </c>
+      <c r="T12">
+        <v>2.208364459547498E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.003140333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.009421000000000001</v>
+      </c>
+      <c r="I13">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="J13">
+        <v>2.265922906154529E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.17689</v>
+      </c>
+      <c r="O13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P13">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q13">
+        <v>0.002278720076666667</v>
+      </c>
+      <c r="R13">
+        <v>0.02050848069</v>
+      </c>
+      <c r="S13">
+        <v>4.593976308800565E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.593976308800566E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H14">
+        <v>12.403529</v>
+      </c>
+      <c r="I14">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J14">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.740822</v>
+      </c>
+      <c r="N14">
+        <v>5.222466</v>
+      </c>
+      <c r="O14">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P14">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q14">
+        <v>7.197445386946001</v>
+      </c>
+      <c r="R14">
+        <v>64.77700848251401</v>
+      </c>
+      <c r="S14">
+        <v>0.01451029195296487</v>
+      </c>
+      <c r="T14">
+        <v>0.01451029195296488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H15">
+        <v>12.403529</v>
+      </c>
+      <c r="I15">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J15">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.077748</v>
+      </c>
+      <c r="N15">
+        <v>3.233244</v>
+      </c>
+      <c r="O15">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P15">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q15">
+        <v>4.455959524230667</v>
+      </c>
+      <c r="R15">
+        <v>40.103635718076</v>
+      </c>
+      <c r="S15">
+        <v>0.008983364256497211</v>
+      </c>
+      <c r="T15">
+        <v>0.008983364256497215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.89637074824577</v>
-      </c>
-      <c r="H10">
-        <v>3.89637074824577</v>
-      </c>
-      <c r="I10">
-        <v>0.02823739589886082</v>
-      </c>
-      <c r="J10">
-        <v>0.02823739589886082</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.469659131405571</v>
-      </c>
-      <c r="N10">
-        <v>0.469659131405571</v>
-      </c>
-      <c r="O10">
-        <v>0.1683658059792155</v>
-      </c>
-      <c r="P10">
-        <v>0.1683658059792155</v>
-      </c>
-      <c r="Q10">
-        <v>1.829966101255183</v>
-      </c>
-      <c r="R10">
-        <v>1.829966101255183</v>
-      </c>
-      <c r="S10">
-        <v>0.004754211919265895</v>
-      </c>
-      <c r="T10">
-        <v>0.004754211919265895</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H16">
+        <v>12.403529</v>
+      </c>
+      <c r="I16">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J16">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.104645</v>
+      </c>
+      <c r="O16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q16">
+        <v>0.1442185880227778</v>
+      </c>
+      <c r="R16">
+        <v>1.297967292205</v>
+      </c>
+      <c r="S16">
+        <v>0.0002907495235810074</v>
+      </c>
+      <c r="T16">
+        <v>0.0002907495235810075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.134509666666667</v>
+      </c>
+      <c r="H17">
+        <v>12.403529</v>
+      </c>
+      <c r="I17">
+        <v>0.02983275711522341</v>
+      </c>
+      <c r="J17">
+        <v>0.02983275711522342</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.17689</v>
+      </c>
+      <c r="O17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q17">
+        <v>3.000124249423334</v>
+      </c>
+      <c r="R17">
+        <v>27.00111824481001</v>
+      </c>
+      <c r="S17">
+        <v>0.006048351382180317</v>
+      </c>
+      <c r="T17">
+        <v>0.006048351382180318</v>
       </c>
     </row>
   </sheetData>
